--- a/Docs/Workers.xlsx
+++ b/Docs/Workers.xlsx
@@ -467,14 +467,12 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="1" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/Docs/Workers.xlsx
+++ b/Docs/Workers.xlsx
@@ -38,46 +38,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A12</t>
   </si>
   <si>
     <t>B23</t>
   </si>
   <si>
-    <t>C34</t>
-  </si>
-  <si>
     <t>A13</t>
   </si>
   <si>
     <t>B24</t>
   </si>
   <si>
-    <t>C35</t>
-  </si>
-  <si>
     <t>A14</t>
   </si>
   <si>
     <t>B25</t>
   </si>
   <si>
-    <t>C36</t>
-  </si>
-  <si>
     <t>A15</t>
   </si>
   <si>
     <t>B26</t>
   </si>
   <si>
-    <t>C37</t>
-  </si>
-  <si>
     <t>A16</t>
   </si>
   <si>
@@ -121,6 +105,26 @@
   </si>
   <si>
     <t>C42</t>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -467,7 +471,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -494,106 +498,106 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Workers.xlsx
+++ b/Docs/Workers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>专家名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,100 +30,113 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>B23</t>
-  </si>
-  <si>
-    <t>A13</t>
-  </si>
-  <si>
-    <t>B24</t>
-  </si>
-  <si>
-    <t>A14</t>
-  </si>
-  <si>
-    <t>B25</t>
-  </si>
-  <si>
-    <t>A15</t>
-  </si>
-  <si>
-    <t>B26</t>
-  </si>
-  <si>
-    <t>A16</t>
-  </si>
-  <si>
-    <t>B27</t>
-  </si>
-  <si>
-    <t>C38</t>
-  </si>
-  <si>
-    <t>A17</t>
-  </si>
-  <si>
-    <t>B28</t>
-  </si>
-  <si>
-    <t>C39</t>
-  </si>
-  <si>
-    <t>A18</t>
-  </si>
-  <si>
-    <t>B29</t>
-  </si>
-  <si>
-    <t>C40</t>
-  </si>
-  <si>
-    <t>A19</t>
-  </si>
-  <si>
-    <t>B30</t>
-  </si>
-  <si>
-    <t>C41</t>
-  </si>
-  <si>
-    <t>A20</t>
-  </si>
-  <si>
-    <t>B31</t>
-  </si>
-  <si>
-    <t>C42</t>
-  </si>
-  <si>
-    <t>D1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D5</t>
+    <t>专家001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家003</t>
+  </si>
+  <si>
+    <t>专家004</t>
+  </si>
+  <si>
+    <t>专家005</t>
+  </si>
+  <si>
+    <t>专家006</t>
+  </si>
+  <si>
+    <t>专家007</t>
+  </si>
+  <si>
+    <t>专家008</t>
+  </si>
+  <si>
+    <t>专家009</t>
+  </si>
+  <si>
+    <t>专家010</t>
+  </si>
+  <si>
+    <t>专家011</t>
+  </si>
+  <si>
+    <t>专家012</t>
+  </si>
+  <si>
+    <t>专家013</t>
+  </si>
+  <si>
+    <t>专家014</t>
+  </si>
+  <si>
+    <t>专家015</t>
+  </si>
+  <si>
+    <t>专家016</t>
+  </si>
+  <si>
+    <t>专家017</t>
+  </si>
+  <si>
+    <t>专家018</t>
+  </si>
+  <si>
+    <t>专家019</t>
+  </si>
+  <si>
+    <t>专家020</t>
+  </si>
+  <si>
+    <t>航空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空1所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航天1所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空2所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空3所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空4所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空5所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航天2所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航天3所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航天4所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航天5所</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B12" sqref="B12:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -495,95 +508,95 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -591,13 +604,123 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Workers.xlsx
+++ b/Docs/Workers.xlsx
@@ -92,14 +92,6 @@
     <t>专家020</t>
   </si>
   <si>
-    <t>航空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>航天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>航空1所</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,6 +130,12 @@
   <si>
     <t>航天5所</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇宙世界中国航空</t>
+  </si>
+  <si>
+    <t>宇宙世界中国航天</t>
   </si>
 </sst>
 </file>
@@ -481,15 +479,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B21"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -508,10 +507,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -519,10 +518,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -530,10 +529,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -541,10 +540,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -552,10 +551,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -563,10 +562,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -574,10 +573,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -585,10 +584,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -596,10 +595,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -607,10 +606,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -618,10 +617,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -629,10 +628,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -640,10 +639,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -651,10 +650,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -662,10 +661,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -673,10 +672,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -684,10 +683,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -695,10 +694,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -706,21 +705,21 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
